--- a/KKK - elvarasok.xlsx
+++ b/KKK - elvarasok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B93BE1F-354A-4B05-8E89-CD2991CFB037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD201A-C26C-4A67-B3EB-F175D94A15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KKK - elvárások" sheetId="1" r:id="rId1"/>
@@ -86,15 +86,9 @@
     <t>virtuális magánhálózati kapcsolatot (VPN) is megvalósít</t>
   </si>
   <si>
-    <t>Social Media Managers Router es Szerver szoba rotuer</t>
-  </si>
-  <si>
     <t>programozott hálózatkonfigurációt is használ</t>
   </si>
   <si>
-    <t>GNS3 szomoru elet</t>
-  </si>
-  <si>
     <t>forgalomirányítón megvalósított biztonsági funkciókat tartalmaz (pl. ACL-ek)</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>hardveres tűzfaleszközt is alkalmaz</t>
   </si>
   <si>
-    <t>Szervereknel</t>
-  </si>
-  <si>
     <t>Minimum 1-1 Linux és Windows kiszolgálót tartalmaz, melyek legalább az alábbi szolgáltatásokat nyújtják:</t>
   </si>
   <si>
@@ -129,13 +120,22 @@
   </si>
   <si>
     <t>­ Kliens számítógépekre automatizált szoftvertelepítés</t>
+  </si>
+  <si>
+    <t>GNS3</t>
+  </si>
+  <si>
+    <t>Szerverek résznél</t>
+  </si>
+  <si>
+    <t>Social Media Managers Router es Raktár router de szerver szobára irányítva VPN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +151,16 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,12 +176,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,34 +256,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,17 +564,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="108.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -591,18 +593,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -613,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -624,29 +626,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30.75">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -654,115 +656,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30.75">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B19" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
-        <v>30</v>
-      </c>
       <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
     </row>

--- a/KKK - elvarasok.xlsx
+++ b/KKK - elvarasok.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goser\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD201A-C26C-4A67-B3EB-F175D94A15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4CCD201A-C26C-4A67-B3EB-F175D94A15C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B34371E2-7DD3-4382-8D8E-2E24BD849607}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>A hálózati infrastruktúrának legalább 3 telephelyet vagy irodát kell lefednie</t>
   </si>
@@ -83,12 +83,21 @@
     <t>WAN-összeköttetéseket is tartalmaz</t>
   </si>
   <si>
+    <t>Három középső router</t>
+  </si>
+  <si>
     <t>virtuális magánhálózati kapcsolatot (VPN) is megvalósít</t>
   </si>
   <si>
+    <t>Social Media Managers Router es Raktár router de szerver szobára irányítva VPN</t>
+  </si>
+  <si>
     <t>programozott hálózatkonfigurációt is használ</t>
   </si>
   <si>
+    <t>GNS3</t>
+  </si>
+  <si>
     <t>forgalomirányítón megvalósított biztonsági funkciókat tartalmaz (pl. ACL-ek)</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
     <t>hardveres tűzfaleszközt is alkalmaz</t>
   </si>
   <si>
+    <t>Szerverek résznél</t>
+  </si>
+  <si>
     <t>Minimum 1-1 Linux és Windows kiszolgálót tartalmaz, melyek legalább az alábbi szolgáltatásokat nyújtják:</t>
   </si>
   <si>
@@ -120,22 +132,13 @@
   </si>
   <si>
     <t>­ Kliens számítógépekre automatizált szoftvertelepítés</t>
-  </si>
-  <si>
-    <t>GNS3</t>
-  </si>
-  <si>
-    <t>Szerverek résznél</t>
-  </si>
-  <si>
-    <t>Social Media Managers Router es Raktár router de szerver szobára irányítva VPN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +286,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,17 +567,17 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="108.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -604,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -615,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -626,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -637,7 +640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -648,123 +651,126 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="B19" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
     </row>
